--- a/Document/Phong/Bug_list.xlsx
+++ b/Document/Phong/Bug_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Low Hope bug list</t>
   </si>
@@ -78,15 +78,61 @@
   </si>
   <si>
     <t>TungNt</t>
+  </si>
+  <si>
+    <t>Người chơi tạo game không bị trừ point</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>VinhVV</t>
+  </si>
+  <si>
+    <t>Update giá bitcoin chưa thành công bên phía client</t>
+  </si>
+  <si>
+    <t>Lấy giá bitcoin của ngày hôm trước bị lỗi khi không có dữ liệu trong databse</t>
+  </si>
+  <si>
+    <t>Lỗi có thể đăng nhập vào hệ thống admin với mọi tài khoản</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Không redirect trang sang trang chơi game khi tạo game</t>
+  </si>
+  <si>
+    <t>QuanTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player view profile không hiện kết quả </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -164,20 +210,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -190,15 +240,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
@@ -497,204 +580,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>42747</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>42778</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>42747</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>42778</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>42747</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>42778</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8">
+        <v>42778</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>42778</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42778</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42806</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8">
+        <v>42806</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D13" s="8">
         <v>42867</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H13" s="8">
         <v>42867</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
+        <v>42867</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>42867</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
